--- a/Code/Results/Cases/Case_4_180/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_180/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.796639081589916</v>
+        <v>0.3022830053415646</v>
       </c>
       <c r="C2">
-        <v>0.1252162572568665</v>
+        <v>0.03991702448699641</v>
       </c>
       <c r="D2">
-        <v>0.428662989207794</v>
+        <v>0.6287481155922308</v>
       </c>
       <c r="E2">
-        <v>0.1530471169327186</v>
+        <v>0.2477036722000037</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.414723437312432</v>
+        <v>0.7807673163996114</v>
       </c>
       <c r="H2">
-        <v>0.351314530537131</v>
+        <v>0.871281872978372</v>
       </c>
       <c r="I2">
-        <v>0.300698478281511</v>
+        <v>0.6922060077455363</v>
       </c>
       <c r="J2">
-        <v>0.06506549951461338</v>
+        <v>0.1224254103012683</v>
       </c>
       <c r="K2">
-        <v>0.8683356832208062</v>
+        <v>0.3158714194918559</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3661065977129425</v>
+        <v>0.2782987012208622</v>
       </c>
       <c r="N2">
-        <v>0.8266983610249721</v>
+        <v>1.736924146514317</v>
       </c>
       <c r="O2">
-        <v>1.562169594865949</v>
+        <v>3.318226405562442</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6927930621486098</v>
+        <v>0.2715319145079889</v>
       </c>
       <c r="C3">
-        <v>0.1092601023425317</v>
+        <v>0.03513317603264454</v>
       </c>
       <c r="D3">
-        <v>0.3938251766138166</v>
+        <v>0.6231507195425934</v>
       </c>
       <c r="E3">
-        <v>0.1421469478286426</v>
+        <v>0.2463077354985295</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4033451929138963</v>
+        <v>0.7835056816084176</v>
       </c>
       <c r="H3">
-        <v>0.3515257115900425</v>
+        <v>0.8761860003161601</v>
       </c>
       <c r="I3">
-        <v>0.3034313694924471</v>
+        <v>0.6974072650578229</v>
       </c>
       <c r="J3">
-        <v>0.06165086037803746</v>
+        <v>0.1222835275206613</v>
       </c>
       <c r="K3">
-        <v>0.7554576270170514</v>
+        <v>0.2823301802960998</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3213429313156908</v>
+        <v>0.2669304953728187</v>
       </c>
       <c r="N3">
-        <v>0.864304985045405</v>
+        <v>1.753432268750251</v>
       </c>
       <c r="O3">
-        <v>1.538138594758721</v>
+        <v>3.3340402731003</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6290825835505416</v>
+        <v>0.2526804699695049</v>
       </c>
       <c r="C4">
-        <v>0.09946849591759133</v>
+        <v>0.03219163204660447</v>
       </c>
       <c r="D4">
-        <v>0.3729025531339403</v>
+        <v>0.6200032306729071</v>
       </c>
       <c r="E4">
-        <v>0.1356365354378646</v>
+        <v>0.2455627046820048</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3971541260104772</v>
+        <v>0.7856062894513229</v>
       </c>
       <c r="H4">
-        <v>0.3521536250232913</v>
+        <v>0.8795156991379187</v>
       </c>
       <c r="I4">
-        <v>0.3056481241151339</v>
+        <v>0.700908153561894</v>
       </c>
       <c r="J4">
-        <v>0.05964155540835492</v>
+        <v>0.1222496353887053</v>
       </c>
       <c r="K4">
-        <v>0.6861994373917781</v>
+        <v>0.2617535129108433</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2940489641614121</v>
+        <v>0.2600652164705082</v>
       </c>
       <c r="N4">
-        <v>0.8883713214834854</v>
+        <v>1.764089294461328</v>
       </c>
       <c r="O4">
-        <v>1.526103076648539</v>
+        <v>3.345296529186768</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6031259264549931</v>
+        <v>0.2450063670280826</v>
       </c>
       <c r="C5">
-        <v>0.09547838481424265</v>
+        <v>0.03099192183783828</v>
       </c>
       <c r="D5">
-        <v>0.3644876846349092</v>
+        <v>0.6187935418622885</v>
       </c>
       <c r="E5">
-        <v>0.1330269875526895</v>
+        <v>0.245287339136496</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3948224099147097</v>
+        <v>0.7865677603034484</v>
       </c>
       <c r="H5">
-        <v>0.3525309485240413</v>
+        <v>0.8809527762578284</v>
       </c>
       <c r="I5">
-        <v>0.3066824303088929</v>
+        <v>0.7024121046509393</v>
       </c>
       <c r="J5">
-        <v>0.05884366918235528</v>
+        <v>0.1222492260268524</v>
       </c>
       <c r="K5">
-        <v>0.6579805687783562</v>
+        <v>0.2533733498010093</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2829696781378246</v>
+        <v>0.2572966391128944</v>
       </c>
       <c r="N5">
-        <v>0.8984188447186883</v>
+        <v>1.768563159854843</v>
       </c>
       <c r="O5">
-        <v>1.521855715583087</v>
+        <v>3.350272689748891</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.598815999769414</v>
+        <v>0.2437325870356801</v>
       </c>
       <c r="C6">
-        <v>0.09481579496100778</v>
+        <v>0.03079265179390234</v>
       </c>
       <c r="D6">
-        <v>0.3630969410862264</v>
+        <v>0.6185970846367184</v>
       </c>
       <c r="E6">
-        <v>0.1325962345452361</v>
+        <v>0.2452433222386823</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3944465287128267</v>
+        <v>0.7867337821201232</v>
       </c>
       <c r="H6">
-        <v>0.3526008285404814</v>
+        <v>0.8811962484307898</v>
       </c>
       <c r="I6">
-        <v>0.3068619574605655</v>
+        <v>0.7026665050940828</v>
       </c>
       <c r="J6">
-        <v>0.05871241519287551</v>
+        <v>0.1222499680348186</v>
       </c>
       <c r="K6">
-        <v>0.6532948872588662</v>
+        <v>0.2519821472236004</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2811324453180362</v>
+        <v>0.2568386811878582</v>
       </c>
       <c r="N6">
-        <v>0.9001015979412679</v>
+        <v>1.769313957503191</v>
       </c>
       <c r="O6">
-        <v>1.521189381196095</v>
+        <v>3.351122488784455</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6287325082271025</v>
+        <v>0.2525769412127659</v>
       </c>
       <c r="C7">
-        <v>0.09941468541154563</v>
+        <v>0.0321754563338601</v>
       </c>
       <c r="D7">
-        <v>0.3727886249873933</v>
+        <v>0.6199866208181248</v>
       </c>
       <c r="E7">
-        <v>0.1356011690713572</v>
+        <v>0.245558876584866</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.397121916844533</v>
+        <v>0.785618829149989</v>
       </c>
       <c r="H7">
-        <v>0.3521582269730743</v>
+        <v>0.879534755215694</v>
       </c>
       <c r="I7">
-        <v>0.3056615486967651</v>
+        <v>0.7009281232933304</v>
       </c>
       <c r="J7">
-        <v>0.05963071145051657</v>
+        <v>0.1222495755796018</v>
       </c>
       <c r="K7">
-        <v>0.6858188603039395</v>
+        <v>0.2616404741797567</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2938993762202884</v>
+        <v>0.2600277604599768</v>
       </c>
       <c r="N7">
-        <v>0.8885058594599973</v>
+        <v>1.764149099943607</v>
       </c>
       <c r="O7">
-        <v>1.526043168600026</v>
+        <v>3.345362063437861</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7608179209228183</v>
+        <v>0.2916741291236917</v>
       </c>
       <c r="C8">
-        <v>0.1197125884344814</v>
+        <v>0.0382684681478338</v>
       </c>
       <c r="D8">
-        <v>0.4165498423889318</v>
+        <v>0.6267581885441587</v>
       </c>
       <c r="E8">
-        <v>0.1492494431198743</v>
+        <v>0.247199124328521</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4106297675128019</v>
+        <v>0.7816245108367141</v>
       </c>
       <c r="H8">
-        <v>0.3512815659307407</v>
+        <v>0.8729067600465257</v>
       </c>
       <c r="I8">
-        <v>0.3015261865295145</v>
+        <v>0.6939356451761611</v>
       </c>
       <c r="J8">
-        <v>0.06386937792896319</v>
+        <v>0.1223654529979363</v>
       </c>
       <c r="K8">
-        <v>0.8294000881030286</v>
+        <v>0.3043030114200178</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.350629429826057</v>
+        <v>0.2743552241186791</v>
       </c>
       <c r="N8">
-        <v>0.8394595100335165</v>
+        <v>1.742508043809644</v>
       </c>
       <c r="O8">
-        <v>1.553302827940627</v>
+        <v>3.323358214462317</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.020593388760801</v>
+        <v>0.3685618721286517</v>
       </c>
       <c r="C9">
-        <v>0.1596269908114181</v>
+        <v>0.05018114461805112</v>
       </c>
       <c r="D9">
-        <v>0.5063853951403416</v>
+        <v>0.6423262571134956</v>
       </c>
       <c r="E9">
-        <v>0.1775731450668374</v>
+        <v>0.2513028659403247</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4438448246511371</v>
+        <v>0.7771173002879834</v>
       </c>
       <c r="H9">
-        <v>0.3536982721686144</v>
+        <v>0.8624326907702908</v>
       </c>
       <c r="I9">
-        <v>0.2979045835092364</v>
+        <v>0.6826600778513807</v>
       </c>
       <c r="J9">
-        <v>0.07292329432730327</v>
+        <v>0.1230143421753311</v>
       </c>
       <c r="K9">
-        <v>1.11175057893837</v>
+        <v>0.3880863570979614</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4636280250969378</v>
+        <v>0.3033553876032045</v>
       </c>
       <c r="N9">
-        <v>0.7512575497020775</v>
+        <v>1.704201336595351</v>
       </c>
       <c r="O9">
-        <v>1.629603506805239</v>
+        <v>3.292469239478834</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.212442242547041</v>
+        <v>0.4251649285390613</v>
       </c>
       <c r="C10">
-        <v>0.1891202703882016</v>
+        <v>0.0589097111205632</v>
       </c>
       <c r="D10">
-        <v>0.5752934209367027</v>
+        <v>0.6551525473134348</v>
       </c>
       <c r="E10">
-        <v>0.1995001195853803</v>
+        <v>0.2548565887773222</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4729595494633116</v>
+        <v>0.7758331038975683</v>
       </c>
       <c r="H10">
-        <v>0.3582628053334673</v>
+        <v>0.8562704626338018</v>
       </c>
       <c r="I10">
-        <v>0.2982907511776283</v>
+        <v>0.6758593936328907</v>
       </c>
       <c r="J10">
-        <v>0.08010023072288419</v>
+        <v>0.1237474584788458</v>
       </c>
       <c r="K10">
-        <v>1.320276993413984</v>
+        <v>0.4496970654481629</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5480678223237518</v>
+        <v>0.3252056610089014</v>
       </c>
       <c r="N10">
-        <v>0.6916592449276315</v>
+        <v>1.678571852820036</v>
       </c>
       <c r="O10">
-        <v>1.701445328801526</v>
+        <v>3.277238509482714</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.300061171913597</v>
+        <v>0.4509359953950423</v>
       </c>
       <c r="C11">
-        <v>0.2025983104066569</v>
+        <v>0.06287506388756015</v>
       </c>
       <c r="D11">
-        <v>0.6073797596704367</v>
+        <v>0.6612876694823058</v>
       </c>
       <c r="E11">
-        <v>0.2097572862427981</v>
+        <v>0.2565898222992828</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4873715483601586</v>
+        <v>0.7756891282029699</v>
       </c>
       <c r="H11">
-        <v>0.3610080263489976</v>
+        <v>0.853798910793671</v>
       </c>
       <c r="I11">
-        <v>0.2992010636094413</v>
+        <v>0.6730873116392182</v>
       </c>
       <c r="J11">
-        <v>0.08349638388431657</v>
+        <v>0.1241365129675884</v>
       </c>
       <c r="K11">
-        <v>1.415520357752257</v>
+        <v>0.4777335557051856</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5868734974535315</v>
+        <v>0.3352626024302836</v>
       </c>
       <c r="N11">
-        <v>0.6657562222756024</v>
+        <v>1.667457451709232</v>
       </c>
       <c r="O11">
-        <v>1.737992662195865</v>
+        <v>3.271928158466523</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.333300807553655</v>
+        <v>0.460697551178697</v>
       </c>
       <c r="C12">
-        <v>0.2077130462644305</v>
+        <v>0.06437582565375521</v>
       </c>
       <c r="D12">
-        <v>0.619645784009947</v>
+        <v>0.6636539172938853</v>
       </c>
       <c r="E12">
-        <v>0.2136854815453475</v>
+        <v>0.257262875124411</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4930096371325305</v>
+        <v>0.7756978966456103</v>
       </c>
       <c r="H12">
-        <v>0.3621493507394717</v>
+        <v>0.8529106038462402</v>
       </c>
       <c r="I12">
-        <v>0.2996579011990796</v>
+        <v>0.6720838087488161</v>
       </c>
       <c r="J12">
-        <v>0.08480281871766238</v>
+        <v>0.1242918118380842</v>
       </c>
       <c r="K12">
-        <v>1.451654143081811</v>
+        <v>0.4883511498734094</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6016320627828406</v>
+        <v>0.3390875764055821</v>
       </c>
       <c r="N12">
-        <v>0.6561284405025951</v>
+        <v>1.663326994194893</v>
       </c>
       <c r="O12">
-        <v>1.75242691416895</v>
+        <v>3.270149750388242</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.326139202649273</v>
+        <v>0.4585951182169197</v>
       </c>
       <c r="C13">
-        <v>0.2066109772730158</v>
+        <v>0.06405264779188258</v>
       </c>
       <c r="D13">
-        <v>0.6169987801622483</v>
+        <v>0.663142393534315</v>
       </c>
       <c r="E13">
-        <v>0.2128374595806974</v>
+        <v>0.2571171786489117</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4917871320180751</v>
+        <v>0.7756931936252442</v>
       </c>
       <c r="H13">
-        <v>0.36189892694496</v>
+        <v>0.8530998001496783</v>
       </c>
       <c r="I13">
-        <v>0.2995544189105281</v>
+        <v>0.6722978755087468</v>
       </c>
       <c r="J13">
-        <v>0.08452052302060054</v>
+        <v>0.1242580111378189</v>
       </c>
       <c r="K13">
-        <v>1.443868897081956</v>
+        <v>0.486064435345412</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5984505905044486</v>
+        <v>0.3382630637158357</v>
       </c>
       <c r="N13">
-        <v>0.6581937780183189</v>
+        <v>1.664213078333898</v>
       </c>
       <c r="O13">
-        <v>1.749291154696238</v>
+        <v>3.270522424563893</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.302794546509233</v>
+        <v>0.4517390353179564</v>
       </c>
       <c r="C14">
-        <v>0.2030188720701886</v>
+        <v>0.06299854950387385</v>
       </c>
       <c r="D14">
-        <v>0.6083865205043253</v>
+        <v>0.661481481180715</v>
       </c>
       <c r="E14">
-        <v>0.2100795585243063</v>
+        <v>0.2566448600896862</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4878317027562105</v>
+        <v>0.7756885812598853</v>
       </c>
       <c r="H14">
-        <v>0.3610998508555809</v>
+        <v>0.8537248753976598</v>
       </c>
       <c r="I14">
-        <v>0.299236362272552</v>
+        <v>0.6730038265546199</v>
       </c>
       <c r="J14">
-        <v>0.08360344756972893</v>
+        <v>0.1241491298156916</v>
       </c>
       <c r="K14">
-        <v>1.418491687546179</v>
+        <v>0.4786070591720204</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5880863745268812</v>
+        <v>0.335576953322331</v>
       </c>
       <c r="N14">
-        <v>0.6649604650899263</v>
+        <v>1.667116066639685</v>
       </c>
       <c r="O14">
-        <v>1.739168030718218</v>
+        <v>3.271777189053296</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.288503440859841</v>
+        <v>0.4475398101464236</v>
       </c>
       <c r="C15">
-        <v>0.2008200866814462</v>
+        <v>0.06235277362624458</v>
       </c>
       <c r="D15">
-        <v>0.6031266050689794</v>
+        <v>0.6604697201370016</v>
       </c>
       <c r="E15">
-        <v>0.2083961032535058</v>
+        <v>0.256357726445259</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4854327947824686</v>
+        <v>0.7756939977443551</v>
       </c>
       <c r="H15">
-        <v>0.3606238192120657</v>
+        <v>0.8541139507309623</v>
       </c>
       <c r="I15">
-        <v>0.2990563441568774</v>
+        <v>0.6734422611759925</v>
       </c>
       <c r="J15">
-        <v>0.08304441334050239</v>
+        <v>0.1240834746098756</v>
       </c>
       <c r="K15">
-        <v>1.402956535324364</v>
+        <v>0.4740392858460609</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5817465072301076</v>
+        <v>0.3339337922393568</v>
       </c>
       <c r="N15">
-        <v>0.6691290704370196</v>
+        <v>1.668904431511291</v>
       </c>
       <c r="O15">
-        <v>1.733045943779672</v>
+        <v>3.272576042222056</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.206723982018559</v>
+        <v>0.4234811246850541</v>
       </c>
       <c r="C16">
-        <v>0.1882408573321612</v>
+        <v>0.05865045330959617</v>
       </c>
       <c r="D16">
-        <v>0.5732121661900464</v>
+        <v>0.6547576313296872</v>
       </c>
       <c r="E16">
-        <v>0.1988357602878992</v>
+        <v>0.2547456599495561</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4720422519590954</v>
+        <v>0.7758513701326706</v>
       </c>
       <c r="H16">
-        <v>0.3580973269067158</v>
+        <v>0.8564386518121552</v>
       </c>
       <c r="I16">
-        <v>0.2982465880847123</v>
+        <v>0.6760470251724584</v>
       </c>
       <c r="J16">
-        <v>0.07988105286761993</v>
+        <v>0.1237231493736175</v>
       </c>
       <c r="K16">
-        <v>1.314061344226246</v>
+        <v>0.4478649560374492</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5455402965052016</v>
+        <v>0.3245507549523055</v>
       </c>
       <c r="N16">
-        <v>0.6933770050918282</v>
+        <v>1.679309164639768</v>
       </c>
       <c r="O16">
-        <v>1.699137917635795</v>
+        <v>3.27761809949294</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.156650782550201</v>
+        <v>0.4087271509548884</v>
       </c>
       <c r="C17">
-        <v>0.1805410547385264</v>
+        <v>0.05637779064070969</v>
       </c>
       <c r="D17">
-        <v>0.5550564912874165</v>
+        <v>0.6513302533460035</v>
       </c>
       <c r="E17">
-        <v>0.1930455068120267</v>
+        <v>0.2537865406406041</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4641354052539128</v>
+        <v>0.7760606526762643</v>
       </c>
       <c r="H17">
-        <v>0.3567225713575084</v>
+        <v>0.8579496749145079</v>
       </c>
       <c r="I17">
-        <v>0.2979424770470871</v>
+        <v>0.6777273152552077</v>
       </c>
       <c r="J17">
-        <v>0.07797510763366233</v>
+        <v>0.1235163190353319</v>
       </c>
       <c r="K17">
-        <v>1.259633578323758</v>
+        <v>0.431809866884862</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.523434671876494</v>
+        <v>0.3188244146586925</v>
       </c>
       <c r="N17">
-        <v>0.7085669520205728</v>
+        <v>1.685831621273055</v>
       </c>
       <c r="O17">
-        <v>1.679353375150754</v>
+        <v>3.281125561637879</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.127881891839365</v>
+        <v>0.4002431646302114</v>
       </c>
       <c r="C18">
-        <v>0.1761179785086142</v>
+        <v>0.05507011882359336</v>
       </c>
       <c r="D18">
-        <v>0.5446828668841874</v>
+        <v>0.6493872002506862</v>
       </c>
       <c r="E18">
-        <v>0.1897414775691502</v>
+        <v>0.2532458614400426</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4596966876815856</v>
+        <v>0.7762224620715017</v>
       </c>
       <c r="H18">
-        <v>0.3559944426437482</v>
+        <v>0.8588499990835743</v>
       </c>
       <c r="I18">
-        <v>0.2978362977045386</v>
+        <v>0.6787240437398587</v>
       </c>
       <c r="J18">
-        <v>0.07689112424127131</v>
+        <v>0.1234025859001875</v>
       </c>
       <c r="K18">
-        <v>1.228363509721987</v>
+        <v>0.4225763301887753</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.510756695254436</v>
+        <v>0.3155418141495758</v>
       </c>
       <c r="N18">
-        <v>0.7174170965186883</v>
+        <v>1.689634423165721</v>
       </c>
       <c r="O18">
-        <v>1.668335275369628</v>
+        <v>3.283295283417061</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.118146408297861</v>
+        <v>0.3973710119107068</v>
       </c>
       <c r="C19">
-        <v>0.1746213102665166</v>
+        <v>0.05462728040049569</v>
       </c>
       <c r="D19">
-        <v>0.5411821210259973</v>
+        <v>0.6487341792663983</v>
       </c>
       <c r="E19">
-        <v>0.1886272189626297</v>
+        <v>0.2530646844272582</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4582121771481269</v>
+        <v>0.7762843649477702</v>
       </c>
       <c r="H19">
-        <v>0.3557584965873275</v>
+        <v>0.8591601984722814</v>
       </c>
       <c r="I19">
-        <v>0.297811961791929</v>
+        <v>0.6790667183706063</v>
       </c>
       <c r="J19">
-        <v>0.07652616861006578</v>
+        <v>0.1233649766103611</v>
       </c>
       <c r="K19">
-        <v>1.217781719207039</v>
+        <v>0.4194501899532099</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5064702265028913</v>
+        <v>0.3144322845602119</v>
       </c>
       <c r="N19">
-        <v>0.7204328442268633</v>
+        <v>1.690930789626445</v>
       </c>
       <c r="O19">
-        <v>1.66466567709989</v>
+        <v>3.284056081116034</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.161977785882016</v>
+        <v>0.4102975224060401</v>
       </c>
       <c r="C20">
-        <v>0.1813601130002525</v>
+        <v>0.05661977131657636</v>
       </c>
       <c r="D20">
-        <v>0.5569819833688712</v>
+        <v>0.6516921776199069</v>
       </c>
       <c r="E20">
-        <v>0.1936591358283479</v>
+        <v>0.2538875044556619</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4649657226780732</v>
+        <v>0.7760340858537802</v>
       </c>
       <c r="H20">
-        <v>0.3568623987402617</v>
+        <v>0.8577855929657545</v>
       </c>
       <c r="I20">
-        <v>0.2979676904441888</v>
+        <v>0.6775453128055204</v>
       </c>
       <c r="J20">
-        <v>0.07817671872155074</v>
+        <v>0.1235377952912415</v>
       </c>
       <c r="K20">
-        <v>1.265423764653917</v>
+        <v>0.4335188668871126</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5257840160723148</v>
+        <v>0.3194328524328256</v>
       </c>
       <c r="N20">
-        <v>0.7069381794917824</v>
+        <v>1.685131989583344</v>
       </c>
       <c r="O20">
-        <v>1.681421793133978</v>
+        <v>3.280736422863441</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.3096497154377</v>
+        <v>0.4537527666262804</v>
       </c>
       <c r="C21">
-        <v>0.204073647525675</v>
+        <v>0.06330818681652772</v>
       </c>
       <c r="D21">
-        <v>0.6109129352671232</v>
+        <v>0.6619681655838292</v>
       </c>
       <c r="E21">
-        <v>0.2108883977309191</v>
+        <v>0.2567831383086343</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.488988502308743</v>
+        <v>0.7756882184866498</v>
       </c>
       <c r="H21">
-        <v>0.3613317505061957</v>
+        <v>0.8535399839826994</v>
       </c>
       <c r="I21">
-        <v>0.2993266866195725</v>
+        <v>0.6727952172532632</v>
       </c>
       <c r="J21">
-        <v>0.08387224916501168</v>
+        <v>0.1241808946632474</v>
       </c>
       <c r="K21">
-        <v>1.425943665595867</v>
+        <v>0.4807974546609159</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5911288082813968</v>
+        <v>0.3363654794911568</v>
       </c>
       <c r="N21">
-        <v>0.6629679484903468</v>
+        <v>1.666261262755248</v>
       </c>
       <c r="O21">
-        <v>1.742124981114472</v>
+        <v>3.271402325630731</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.406518438427014</v>
+        <v>0.4821682461953287</v>
       </c>
       <c r="C22">
-        <v>0.2189828307730579</v>
+        <v>0.06767457667089616</v>
       </c>
       <c r="D22">
-        <v>0.646838599860331</v>
+        <v>0.6689347283508198</v>
       </c>
       <c r="E22">
-        <v>0.2224070922098136</v>
+        <v>0.2587730036039915</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5057477966481514</v>
+        <v>0.775831064018476</v>
       </c>
       <c r="H22">
-        <v>0.3648487766995885</v>
+        <v>0.8510427399388902</v>
       </c>
       <c r="I22">
-        <v>0.3008717021072016</v>
+        <v>0.6699601776774742</v>
       </c>
       <c r="J22">
-        <v>0.08771419659883151</v>
+        <v>0.1246476587040206</v>
       </c>
       <c r="K22">
-        <v>1.531250534483206</v>
+        <v>0.5117010447271753</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6342103332359983</v>
+        <v>0.3475287530824005</v>
       </c>
       <c r="N22">
-        <v>0.6352903632735414</v>
+        <v>1.654384698477315</v>
       </c>
       <c r="O22">
-        <v>1.785283356530442</v>
+        <v>3.266657093288103</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.354781488049184</v>
+        <v>0.4670011854617826</v>
       </c>
       <c r="C23">
-        <v>0.2110188865218845</v>
+        <v>0.06534462051543244</v>
       </c>
       <c r="D23">
-        <v>0.6275990859195417</v>
+        <v>0.6651936727024861</v>
       </c>
       <c r="E23">
-        <v>0.2162345226508293</v>
+        <v>0.2577020813601578</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4967017420267155</v>
+        <v>0.7757210756410586</v>
       </c>
       <c r="H23">
-        <v>0.3629151910239017</v>
+        <v>0.8523502000514043</v>
       </c>
       <c r="I23">
-        <v>0.2999847509261286</v>
+        <v>0.6714486457028741</v>
       </c>
       <c r="J23">
-        <v>0.08565221298784564</v>
+        <v>0.1243942922008117</v>
       </c>
       <c r="K23">
-        <v>1.475005678964806</v>
+        <v>0.4952070147730865</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6111801349136385</v>
+        <v>0.3415619162038297</v>
       </c>
       <c r="N23">
-        <v>0.6499629225203325</v>
+        <v>1.660681664698781</v>
       </c>
       <c r="O23">
-        <v>1.761916598742943</v>
+        <v>3.269065779340451</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.159569389720701</v>
+        <v>0.4095875628208034</v>
       </c>
       <c r="C24">
-        <v>0.1809898055677621</v>
+        <v>0.05651037523723801</v>
       </c>
       <c r="D24">
-        <v>0.5561112687648517</v>
+        <v>0.6515284663194905</v>
       </c>
       <c r="E24">
-        <v>0.1933816369575894</v>
+        <v>0.2538418252842831</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4645900037336332</v>
+        <v>0.7760459674745306</v>
       </c>
       <c r="H24">
-        <v>0.356798989346558</v>
+        <v>0.8578596759236348</v>
       </c>
       <c r="I24">
-        <v>0.2979560780981103</v>
+        <v>0.6776275004602326</v>
       </c>
       <c r="J24">
-        <v>0.07808553380034766</v>
+        <v>0.1235280697510817</v>
       </c>
       <c r="K24">
-        <v>1.262805956344749</v>
+        <v>0.4327462380724967</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5247217820284149</v>
+        <v>0.3191577479557708</v>
       </c>
       <c r="N24">
-        <v>0.7076741829208357</v>
+        <v>1.685448128119466</v>
       </c>
       <c r="O24">
-        <v>1.68048555446984</v>
+        <v>3.280911875171654</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9501834538131959</v>
+        <v>0.3477403405493362</v>
       </c>
       <c r="C25">
-        <v>0.1488072739248736</v>
+        <v>0.04696246957423966</v>
       </c>
       <c r="D25">
-        <v>0.481606707371526</v>
+        <v>0.6378703493631122</v>
       </c>
       <c r="E25">
-        <v>0.169727233224453</v>
+        <v>0.2500979358062239</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4340782087917887</v>
+        <v>0.7779806019788396</v>
       </c>
       <c r="H25">
-        <v>0.3525750311965936</v>
+        <v>0.8649966020932851</v>
       </c>
       <c r="I25">
-        <v>0.2983728101682601</v>
+        <v>0.6854497615470301</v>
       </c>
       <c r="J25">
-        <v>0.07038729170613323</v>
+        <v>0.1227937291158412</v>
       </c>
       <c r="K25">
-        <v>1.035222947585567</v>
+        <v>0.3654096634058703</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4328363513049922</v>
+        <v>0.2954140411528456</v>
       </c>
       <c r="N25">
-        <v>0.7742305252509611</v>
+        <v>1.714122463444621</v>
       </c>
       <c r="O25">
-        <v>1.606331233471707</v>
+        <v>3.299514085845118</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_180/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_180/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3022830053415646</v>
+        <v>0.7966390815900013</v>
       </c>
       <c r="C2">
-        <v>0.03991702448699641</v>
+        <v>0.1252162572568523</v>
       </c>
       <c r="D2">
-        <v>0.6287481155922308</v>
+        <v>0.4286629892078793</v>
       </c>
       <c r="E2">
-        <v>0.2477036722000037</v>
+        <v>0.1530471169327079</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.7807673163996114</v>
+        <v>0.4147234373125102</v>
       </c>
       <c r="H2">
-        <v>0.871281872978372</v>
+        <v>0.351314530537131</v>
       </c>
       <c r="I2">
-        <v>0.6922060077455363</v>
+        <v>0.3006984782815145</v>
       </c>
       <c r="J2">
-        <v>0.1224254103012683</v>
+        <v>0.06506549951463469</v>
       </c>
       <c r="K2">
-        <v>0.3158714194918559</v>
+        <v>0.8683356832206641</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2782987012208622</v>
+        <v>0.3661065977129354</v>
       </c>
       <c r="N2">
-        <v>1.736924146514317</v>
+        <v>0.8266983610250405</v>
       </c>
       <c r="O2">
-        <v>3.318226405562442</v>
+        <v>1.56216959486585</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2715319145079889</v>
+        <v>0.6927930621486951</v>
       </c>
       <c r="C3">
-        <v>0.03513317603264454</v>
+        <v>0.109260102343228</v>
       </c>
       <c r="D3">
-        <v>0.6231507195425934</v>
+        <v>0.3938251766139729</v>
       </c>
       <c r="E3">
-        <v>0.2463077354985295</v>
+        <v>0.1421469478286355</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7835056816084176</v>
+        <v>0.4033451929138607</v>
       </c>
       <c r="H3">
-        <v>0.8761860003161601</v>
+        <v>0.3515257115900496</v>
       </c>
       <c r="I3">
-        <v>0.6974072650578229</v>
+        <v>0.3034313694924649</v>
       </c>
       <c r="J3">
-        <v>0.1222835275206613</v>
+        <v>0.06165086037785983</v>
       </c>
       <c r="K3">
-        <v>0.2823301802960998</v>
+        <v>0.7554576270170514</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2669304953728187</v>
+        <v>0.3213429313156837</v>
       </c>
       <c r="N3">
-        <v>1.753432268750251</v>
+        <v>0.864304985045405</v>
       </c>
       <c r="O3">
-        <v>3.3340402731003</v>
+        <v>1.538138594758792</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2526804699695049</v>
+        <v>0.62908258355057</v>
       </c>
       <c r="C4">
-        <v>0.03219163204660447</v>
+        <v>0.09946849591750606</v>
       </c>
       <c r="D4">
-        <v>0.6200032306729071</v>
+        <v>0.3729025531340397</v>
       </c>
       <c r="E4">
-        <v>0.2455627046820048</v>
+        <v>0.1356365354378362</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7856062894513229</v>
+        <v>0.3971541260105553</v>
       </c>
       <c r="H4">
-        <v>0.8795156991379187</v>
+        <v>0.3521536250233055</v>
       </c>
       <c r="I4">
-        <v>0.700908153561894</v>
+        <v>0.3056481241151516</v>
       </c>
       <c r="J4">
-        <v>0.1222496353887053</v>
+        <v>0.05964155540841531</v>
       </c>
       <c r="K4">
-        <v>0.2617535129108433</v>
+        <v>0.686199437391835</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2600652164705082</v>
+        <v>0.2940489641614263</v>
       </c>
       <c r="N4">
-        <v>1.764089294461328</v>
+        <v>0.8883713214835476</v>
       </c>
       <c r="O4">
-        <v>3.345296529186768</v>
+        <v>1.52610307664861</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2450063670280826</v>
+        <v>0.6031259264551352</v>
       </c>
       <c r="C5">
-        <v>0.03099192183783828</v>
+        <v>0.09547838481445581</v>
       </c>
       <c r="D5">
-        <v>0.6187935418622885</v>
+        <v>0.3644876846347813</v>
       </c>
       <c r="E5">
-        <v>0.245287339136496</v>
+        <v>0.1330269875526824</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.7865677603034484</v>
+        <v>0.3948224099146103</v>
       </c>
       <c r="H5">
-        <v>0.8809527762578284</v>
+        <v>0.3525309485240555</v>
       </c>
       <c r="I5">
-        <v>0.7024121046509393</v>
+        <v>0.3066824303088858</v>
       </c>
       <c r="J5">
-        <v>0.1222492260268524</v>
+        <v>0.05884366918228068</v>
       </c>
       <c r="K5">
-        <v>0.2533733498010093</v>
+        <v>0.6579805687783278</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2572966391128944</v>
+        <v>0.2829696781378175</v>
       </c>
       <c r="N5">
-        <v>1.768563159854843</v>
+        <v>0.8984188447186856</v>
       </c>
       <c r="O5">
-        <v>3.350272689748891</v>
+        <v>1.521855715583101</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2437325870356801</v>
+        <v>0.5988159997693856</v>
       </c>
       <c r="C6">
-        <v>0.03079265179390234</v>
+        <v>0.09481579496123516</v>
       </c>
       <c r="D6">
-        <v>0.6185970846367184</v>
+        <v>0.3630969410862264</v>
       </c>
       <c r="E6">
-        <v>0.2452433222386823</v>
+        <v>0.1325962345452645</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.7867337821201232</v>
+        <v>0.3944465287129404</v>
       </c>
       <c r="H6">
-        <v>0.8811962484307898</v>
+        <v>0.352600828540595</v>
       </c>
       <c r="I6">
-        <v>0.7026665050940828</v>
+        <v>0.3068619574605655</v>
       </c>
       <c r="J6">
-        <v>0.1222499680348186</v>
+        <v>0.0587124151929892</v>
       </c>
       <c r="K6">
-        <v>0.2519821472236004</v>
+        <v>0.6532948872588662</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2568386811878582</v>
+        <v>0.2811324453180433</v>
       </c>
       <c r="N6">
-        <v>1.769313957503191</v>
+        <v>0.9001015979412701</v>
       </c>
       <c r="O6">
-        <v>3.351122488784455</v>
+        <v>1.521189381196095</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2525769412127659</v>
+        <v>0.6287325082271877</v>
       </c>
       <c r="C7">
-        <v>0.0321754563338601</v>
+        <v>0.09941468541148879</v>
       </c>
       <c r="D7">
-        <v>0.6199866208181248</v>
+        <v>0.3727886249874075</v>
       </c>
       <c r="E7">
-        <v>0.245558876584866</v>
+        <v>0.1356011690713892</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.785618829149989</v>
+        <v>0.397121916844533</v>
       </c>
       <c r="H7">
-        <v>0.879534755215694</v>
+        <v>0.3521582269730743</v>
       </c>
       <c r="I7">
-        <v>0.7009281232933304</v>
+        <v>0.3056615486967722</v>
       </c>
       <c r="J7">
-        <v>0.1222495755796018</v>
+        <v>0.05963071145051657</v>
       </c>
       <c r="K7">
-        <v>0.2616404741797567</v>
+        <v>0.6858188603039395</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2600277604599768</v>
+        <v>0.2938993762202813</v>
       </c>
       <c r="N7">
-        <v>1.764149099943607</v>
+        <v>0.8885058594600714</v>
       </c>
       <c r="O7">
-        <v>3.345362063437861</v>
+        <v>1.526043168600026</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2916741291236917</v>
+        <v>0.7608179209226478</v>
       </c>
       <c r="C8">
-        <v>0.0382684681478338</v>
+        <v>0.119712588434723</v>
       </c>
       <c r="D8">
-        <v>0.6267581885441587</v>
+        <v>0.4165498423888323</v>
       </c>
       <c r="E8">
-        <v>0.247199124328521</v>
+        <v>0.1492494431198743</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.7816245108367141</v>
+        <v>0.4106297675128019</v>
       </c>
       <c r="H8">
-        <v>0.8729067600465257</v>
+        <v>0.3512815659307407</v>
       </c>
       <c r="I8">
-        <v>0.6939356451761611</v>
+        <v>0.3015261865295145</v>
       </c>
       <c r="J8">
-        <v>0.1223654529979363</v>
+        <v>0.06386937792888148</v>
       </c>
       <c r="K8">
-        <v>0.3043030114200178</v>
+        <v>0.8294000881029433</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2743552241186791</v>
+        <v>0.350629429826057</v>
       </c>
       <c r="N8">
-        <v>1.742508043809644</v>
+        <v>0.8394595100335094</v>
       </c>
       <c r="O8">
-        <v>3.323358214462317</v>
+        <v>1.553302827940556</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3685618721286517</v>
+        <v>1.02059338876083</v>
       </c>
       <c r="C9">
-        <v>0.05018114461805112</v>
+        <v>0.1596269908114181</v>
       </c>
       <c r="D9">
-        <v>0.6423262571134956</v>
+        <v>0.5063853951403416</v>
       </c>
       <c r="E9">
-        <v>0.2513028659403247</v>
+        <v>0.1775731450668303</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.7771173002879834</v>
+        <v>0.4438448246511228</v>
       </c>
       <c r="H9">
-        <v>0.8624326907702908</v>
+        <v>0.3536982721686428</v>
       </c>
       <c r="I9">
-        <v>0.6826600778513807</v>
+        <v>0.2979045835092506</v>
       </c>
       <c r="J9">
-        <v>0.1230143421753311</v>
+        <v>0.07292329432736011</v>
       </c>
       <c r="K9">
-        <v>0.3880863570979614</v>
+        <v>1.111750578938285</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3033553876032045</v>
+        <v>0.4636280250969378</v>
       </c>
       <c r="N9">
-        <v>1.704201336595351</v>
+        <v>0.7512575497021334</v>
       </c>
       <c r="O9">
-        <v>3.292469239478834</v>
+        <v>1.629603506805296</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4251649285390613</v>
+        <v>1.212442242547098</v>
       </c>
       <c r="C10">
-        <v>0.0589097111205632</v>
+        <v>0.1891202703882016</v>
       </c>
       <c r="D10">
-        <v>0.6551525473134348</v>
+        <v>0.5752934209367027</v>
       </c>
       <c r="E10">
-        <v>0.2548565887773222</v>
+        <v>0.1995001195853803</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.7758331038975683</v>
+        <v>0.4729595494632832</v>
       </c>
       <c r="H10">
-        <v>0.8562704626338018</v>
+        <v>0.3582628053333536</v>
       </c>
       <c r="I10">
-        <v>0.6758593936328907</v>
+        <v>0.298290751177646</v>
       </c>
       <c r="J10">
-        <v>0.1237474584788458</v>
+        <v>0.08010023072283445</v>
       </c>
       <c r="K10">
-        <v>0.4496970654481629</v>
+        <v>1.320276993413927</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3252056610089014</v>
+        <v>0.5480678223237376</v>
       </c>
       <c r="N10">
-        <v>1.678571852820036</v>
+        <v>0.6916592449276457</v>
       </c>
       <c r="O10">
-        <v>3.277238509482714</v>
+        <v>1.701445328801555</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4509359953950423</v>
+        <v>1.300061171913427</v>
       </c>
       <c r="C11">
-        <v>0.06287506388756015</v>
+        <v>0.2025983104066</v>
       </c>
       <c r="D11">
-        <v>0.6612876694823058</v>
+        <v>0.6073797596705788</v>
       </c>
       <c r="E11">
-        <v>0.2565898222992828</v>
+        <v>0.2097572862428123</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.7756891282029699</v>
+        <v>0.4873715483600876</v>
       </c>
       <c r="H11">
-        <v>0.853798910793671</v>
+        <v>0.3610080263490971</v>
       </c>
       <c r="I11">
-        <v>0.6730873116392182</v>
+        <v>0.2992010636094413</v>
       </c>
       <c r="J11">
-        <v>0.1241365129675884</v>
+        <v>0.08349638388426683</v>
       </c>
       <c r="K11">
-        <v>0.4777335557051856</v>
+        <v>1.415520357752257</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3352626024302836</v>
+        <v>0.5868734974535244</v>
       </c>
       <c r="N11">
-        <v>1.667457451709232</v>
+        <v>0.665756222275669</v>
       </c>
       <c r="O11">
-        <v>3.271928158466523</v>
+        <v>1.737992662195836</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.460697551178697</v>
+        <v>1.33330080755357</v>
       </c>
       <c r="C12">
-        <v>0.06437582565375521</v>
+        <v>0.2077130462643169</v>
       </c>
       <c r="D12">
-        <v>0.6636539172938853</v>
+        <v>0.619645784009947</v>
       </c>
       <c r="E12">
-        <v>0.257262875124411</v>
+        <v>0.2136854815453688</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7756978966456103</v>
+        <v>0.4930096371326016</v>
       </c>
       <c r="H12">
-        <v>0.8529106038462402</v>
+        <v>0.3621493507393438</v>
       </c>
       <c r="I12">
-        <v>0.6720838087488161</v>
+        <v>0.299657901199069</v>
       </c>
       <c r="J12">
-        <v>0.1242918118380842</v>
+        <v>0.08480281871766948</v>
       </c>
       <c r="K12">
-        <v>0.4883511498734094</v>
+        <v>1.451654143081697</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3390875764055821</v>
+        <v>0.6016320627828478</v>
       </c>
       <c r="N12">
-        <v>1.663326994194893</v>
+        <v>0.6561284405025996</v>
       </c>
       <c r="O12">
-        <v>3.270149750388242</v>
+        <v>1.752426914168865</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4585951182169197</v>
+        <v>1.326139202649131</v>
       </c>
       <c r="C13">
-        <v>0.06405264779188258</v>
+        <v>0.2066109772729874</v>
       </c>
       <c r="D13">
-        <v>0.663142393534315</v>
+        <v>0.6169987801623051</v>
       </c>
       <c r="E13">
-        <v>0.2571171786489117</v>
+        <v>0.2128374595807188</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7756931936252442</v>
+        <v>0.4917871320181035</v>
       </c>
       <c r="H13">
-        <v>0.8530998001496783</v>
+        <v>0.3618989269449457</v>
       </c>
       <c r="I13">
-        <v>0.6722978755087468</v>
+        <v>0.2995544189105317</v>
       </c>
       <c r="J13">
-        <v>0.1242580111378189</v>
+        <v>0.0845205230205508</v>
       </c>
       <c r="K13">
-        <v>0.486064435345412</v>
+        <v>1.443868897081927</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3382630637158357</v>
+        <v>0.5984505905044557</v>
       </c>
       <c r="N13">
-        <v>1.664213078333898</v>
+        <v>0.6581937780183251</v>
       </c>
       <c r="O13">
-        <v>3.270522424563893</v>
+        <v>1.749291154696266</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4517390353179564</v>
+        <v>1.302794546509119</v>
       </c>
       <c r="C14">
-        <v>0.06299854950387385</v>
+        <v>0.2030188720706576</v>
       </c>
       <c r="D14">
-        <v>0.661481481180715</v>
+        <v>0.6083865205044106</v>
       </c>
       <c r="E14">
-        <v>0.2566448600896862</v>
+        <v>0.2100795585243063</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.7756885812598853</v>
+        <v>0.4878317027562389</v>
       </c>
       <c r="H14">
-        <v>0.8537248753976598</v>
+        <v>0.3610998508556236</v>
       </c>
       <c r="I14">
-        <v>0.6730038265546199</v>
+        <v>0.2992363622725556</v>
       </c>
       <c r="J14">
-        <v>0.1241491298156916</v>
+        <v>0.0836034475696863</v>
       </c>
       <c r="K14">
-        <v>0.4786070591720204</v>
+        <v>1.418491687546236</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.335576953322331</v>
+        <v>0.5880863745269096</v>
       </c>
       <c r="N14">
-        <v>1.667116066639685</v>
+        <v>0.6649604650899352</v>
       </c>
       <c r="O14">
-        <v>3.271777189053296</v>
+        <v>1.739168030718247</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4475398101464236</v>
+        <v>1.288503440859955</v>
       </c>
       <c r="C15">
-        <v>0.06235277362624458</v>
+        <v>0.2008200866812899</v>
       </c>
       <c r="D15">
-        <v>0.6604697201370016</v>
+        <v>0.6031266050690078</v>
       </c>
       <c r="E15">
-        <v>0.256357726445259</v>
+        <v>0.2083961032535058</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.7756939977443551</v>
+        <v>0.485432794782497</v>
       </c>
       <c r="H15">
-        <v>0.8541139507309623</v>
+        <v>0.3606238192120799</v>
       </c>
       <c r="I15">
-        <v>0.6734422611759925</v>
+        <v>0.2990563441568597</v>
       </c>
       <c r="J15">
-        <v>0.1240834746098756</v>
+        <v>0.08304441334049528</v>
       </c>
       <c r="K15">
-        <v>0.4740392858460609</v>
+        <v>1.402956535324535</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3339337922393568</v>
+        <v>0.5817465072301147</v>
       </c>
       <c r="N15">
-        <v>1.668904431511291</v>
+        <v>0.6691290704370285</v>
       </c>
       <c r="O15">
-        <v>3.272576042222056</v>
+        <v>1.7330459437797</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4234811246850541</v>
+        <v>1.206723982018616</v>
       </c>
       <c r="C16">
-        <v>0.05865045330959617</v>
+        <v>0.1882408573322465</v>
       </c>
       <c r="D16">
-        <v>0.6547576313296872</v>
+        <v>0.5732121661899612</v>
       </c>
       <c r="E16">
-        <v>0.2547456599495561</v>
+        <v>0.1988357602879063</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.7758513701326706</v>
+        <v>0.4720422519591949</v>
       </c>
       <c r="H16">
-        <v>0.8564386518121552</v>
+        <v>0.3580973269067158</v>
       </c>
       <c r="I16">
-        <v>0.6760470251724584</v>
+        <v>0.2982465880847158</v>
       </c>
       <c r="J16">
-        <v>0.1237231493736175</v>
+        <v>0.07988105286759861</v>
       </c>
       <c r="K16">
-        <v>0.4478649560374492</v>
+        <v>1.314061344226303</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3245507549523055</v>
+        <v>0.5455402965051945</v>
       </c>
       <c r="N16">
-        <v>1.679309164639768</v>
+        <v>0.6933770050918264</v>
       </c>
       <c r="O16">
-        <v>3.27761809949294</v>
+        <v>1.699137917635852</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4087271509548884</v>
+        <v>1.156650782550173</v>
       </c>
       <c r="C17">
-        <v>0.05637779064070969</v>
+        <v>0.1805410547388391</v>
       </c>
       <c r="D17">
-        <v>0.6513302533460035</v>
+        <v>0.5550564912876723</v>
       </c>
       <c r="E17">
-        <v>0.2537865406406041</v>
+        <v>0.1930455068120267</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.7760606526762643</v>
+        <v>0.4641354052540407</v>
       </c>
       <c r="H17">
-        <v>0.8579496749145079</v>
+        <v>0.3567225713575084</v>
       </c>
       <c r="I17">
-        <v>0.6777273152552077</v>
+        <v>0.2979424770470693</v>
       </c>
       <c r="J17">
-        <v>0.1235163190353319</v>
+        <v>0.07797510763368365</v>
       </c>
       <c r="K17">
-        <v>0.431809866884862</v>
+        <v>1.259633578323758</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3188244146586925</v>
+        <v>0.523434671876494</v>
       </c>
       <c r="N17">
-        <v>1.685831621273055</v>
+        <v>0.7085669520206253</v>
       </c>
       <c r="O17">
-        <v>3.281125561637879</v>
+        <v>1.679353375150725</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4002431646302114</v>
+        <v>1.127881891839365</v>
       </c>
       <c r="C18">
-        <v>0.05507011882359336</v>
+        <v>0.1761179785088416</v>
       </c>
       <c r="D18">
-        <v>0.6493872002506862</v>
+        <v>0.5446828668840453</v>
       </c>
       <c r="E18">
-        <v>0.2532458614400426</v>
+        <v>0.1897414775691502</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.7762224620715017</v>
+        <v>0.4596966876815998</v>
       </c>
       <c r="H18">
-        <v>0.8588499990835743</v>
+        <v>0.3559944426437625</v>
       </c>
       <c r="I18">
-        <v>0.6787240437398587</v>
+        <v>0.2978362977045386</v>
       </c>
       <c r="J18">
-        <v>0.1234025859001875</v>
+        <v>0.07689112424128552</v>
       </c>
       <c r="K18">
-        <v>0.4225763301887753</v>
+        <v>1.22836350972193</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3155418141495758</v>
+        <v>0.5107566952544289</v>
       </c>
       <c r="N18">
-        <v>1.689634423165721</v>
+        <v>0.7174170965186981</v>
       </c>
       <c r="O18">
-        <v>3.283295283417061</v>
+        <v>1.668335275369571</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3973710119107068</v>
+        <v>1.118146408297861</v>
       </c>
       <c r="C19">
-        <v>0.05462728040049569</v>
+        <v>0.1746213102665166</v>
       </c>
       <c r="D19">
-        <v>0.6487341792663983</v>
+        <v>0.5411821210259973</v>
       </c>
       <c r="E19">
-        <v>0.2530646844272582</v>
+        <v>0.1886272189626084</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.7762843649477702</v>
+        <v>0.4582121771481837</v>
       </c>
       <c r="H19">
-        <v>0.8591601984722814</v>
+        <v>0.3557584965874412</v>
       </c>
       <c r="I19">
-        <v>0.6790667183706063</v>
+        <v>0.297811961791929</v>
       </c>
       <c r="J19">
-        <v>0.1233649766103611</v>
+        <v>0.07652616861011552</v>
       </c>
       <c r="K19">
-        <v>0.4194501899532099</v>
+        <v>1.217781719207068</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3144322845602119</v>
+        <v>0.5064702265028913</v>
       </c>
       <c r="N19">
-        <v>1.690930789626445</v>
+        <v>0.7204328442268002</v>
       </c>
       <c r="O19">
-        <v>3.284056081116034</v>
+        <v>1.664665677099947</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4102975224060401</v>
+        <v>1.161977785882044</v>
       </c>
       <c r="C20">
-        <v>0.05661977131657636</v>
+        <v>0.1813601130003093</v>
       </c>
       <c r="D20">
-        <v>0.6516921776199069</v>
+        <v>0.5569819833690133</v>
       </c>
       <c r="E20">
-        <v>0.2538875044556619</v>
+        <v>0.1936591358283408</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.7760340858537802</v>
+        <v>0.4649657226780874</v>
       </c>
       <c r="H20">
-        <v>0.8577855929657545</v>
+        <v>0.3568623987402475</v>
       </c>
       <c r="I20">
-        <v>0.6775453128055204</v>
+        <v>0.2979676904441888</v>
       </c>
       <c r="J20">
-        <v>0.1235377952912415</v>
+        <v>0.07817671872157916</v>
       </c>
       <c r="K20">
-        <v>0.4335188668871126</v>
+        <v>1.265423764653832</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3194328524328256</v>
+        <v>0.5257840160723077</v>
       </c>
       <c r="N20">
-        <v>1.685131989583344</v>
+        <v>0.7069381794917922</v>
       </c>
       <c r="O20">
-        <v>3.280736422863441</v>
+        <v>1.681421793134064</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4537527666262804</v>
+        <v>1.309649715437558</v>
       </c>
       <c r="C21">
-        <v>0.06330818681652772</v>
+        <v>0.2040736475254334</v>
       </c>
       <c r="D21">
-        <v>0.6619681655838292</v>
+        <v>0.6109129352672085</v>
       </c>
       <c r="E21">
-        <v>0.2567831383086343</v>
+        <v>0.2108883977309404</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.7756882184866498</v>
+        <v>0.4889885023087004</v>
       </c>
       <c r="H21">
-        <v>0.8535399839826994</v>
+        <v>0.3613317505062952</v>
       </c>
       <c r="I21">
-        <v>0.6727952172532632</v>
+        <v>0.299326686619569</v>
       </c>
       <c r="J21">
-        <v>0.1241808946632474</v>
+        <v>0.08387224916521063</v>
       </c>
       <c r="K21">
-        <v>0.4807974546609159</v>
+        <v>1.425943665595781</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3363654794911568</v>
+        <v>0.5911288082813897</v>
       </c>
       <c r="N21">
-        <v>1.666261262755248</v>
+        <v>0.6629679484903432</v>
       </c>
       <c r="O21">
-        <v>3.271402325630731</v>
+        <v>1.742124981114415</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4821682461953287</v>
+        <v>1.4065184384269</v>
       </c>
       <c r="C22">
-        <v>0.06767457667089616</v>
+        <v>0.2189828307730721</v>
       </c>
       <c r="D22">
-        <v>0.6689347283508198</v>
+        <v>0.6468385998605015</v>
       </c>
       <c r="E22">
-        <v>0.2587730036039915</v>
+        <v>0.2224070922097994</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.775831064018476</v>
+        <v>0.5057477966480519</v>
       </c>
       <c r="H22">
-        <v>0.8510427399388902</v>
+        <v>0.3648487766996737</v>
       </c>
       <c r="I22">
-        <v>0.6699601776774742</v>
+        <v>0.3008717021071909</v>
       </c>
       <c r="J22">
-        <v>0.1246476587040206</v>
+        <v>0.08771419659877466</v>
       </c>
       <c r="K22">
-        <v>0.5117010447271753</v>
+        <v>1.531250534483206</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3475287530824005</v>
+        <v>0.6342103332359983</v>
       </c>
       <c r="N22">
-        <v>1.654384698477315</v>
+        <v>0.6352903632735254</v>
       </c>
       <c r="O22">
-        <v>3.266657093288103</v>
+        <v>1.785283356530442</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4670011854617826</v>
+        <v>1.354781488049156</v>
       </c>
       <c r="C23">
-        <v>0.06534462051543244</v>
+        <v>0.2110188865216998</v>
       </c>
       <c r="D23">
-        <v>0.6651936727024861</v>
+        <v>0.6275990859195701</v>
       </c>
       <c r="E23">
-        <v>0.2577020813601578</v>
+        <v>0.2162345226508151</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.7757210756410586</v>
+        <v>0.4967017420267439</v>
       </c>
       <c r="H23">
-        <v>0.8523502000514043</v>
+        <v>0.3629151910239017</v>
       </c>
       <c r="I23">
-        <v>0.6714486457028741</v>
+        <v>0.2999847509261322</v>
       </c>
       <c r="J23">
-        <v>0.1243942922008117</v>
+        <v>0.0856522129877817</v>
       </c>
       <c r="K23">
-        <v>0.4952070147730865</v>
+        <v>1.475005678964777</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3415619162038297</v>
+        <v>0.6111801349136456</v>
       </c>
       <c r="N23">
-        <v>1.660681664698781</v>
+        <v>0.6499629225203423</v>
       </c>
       <c r="O23">
-        <v>3.269065779340451</v>
+        <v>1.761916598742943</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4095875628208034</v>
+        <v>1.159569389720616</v>
       </c>
       <c r="C24">
-        <v>0.05651037523723801</v>
+        <v>0.1809898055679184</v>
       </c>
       <c r="D24">
-        <v>0.6515284663194905</v>
+        <v>0.5561112687647096</v>
       </c>
       <c r="E24">
-        <v>0.2538418252842831</v>
+        <v>0.1933816369575894</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.7760459674745306</v>
+        <v>0.4645900037335622</v>
       </c>
       <c r="H24">
-        <v>0.8578596759236348</v>
+        <v>0.356798989346558</v>
       </c>
       <c r="I24">
-        <v>0.6776275004602326</v>
+        <v>0.2979560780980997</v>
       </c>
       <c r="J24">
-        <v>0.1235280697510817</v>
+        <v>0.07808553380036187</v>
       </c>
       <c r="K24">
-        <v>0.4327462380724967</v>
+        <v>1.262805956344693</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3191577479557708</v>
+        <v>0.524721782028422</v>
       </c>
       <c r="N24">
-        <v>1.685448128119466</v>
+        <v>0.7076741829208393</v>
       </c>
       <c r="O24">
-        <v>3.280911875171654</v>
+        <v>1.680485554469783</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3477403405493362</v>
+        <v>0.9501834538132812</v>
       </c>
       <c r="C25">
-        <v>0.04696246957423966</v>
+        <v>0.1488072739251152</v>
       </c>
       <c r="D25">
-        <v>0.6378703493631122</v>
+        <v>0.4816067073714976</v>
       </c>
       <c r="E25">
-        <v>0.2500979358062239</v>
+        <v>0.1697272332244815</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.7779806019788396</v>
+        <v>0.4340782087918456</v>
       </c>
       <c r="H25">
-        <v>0.8649966020932851</v>
+        <v>0.3525750311964799</v>
       </c>
       <c r="I25">
-        <v>0.6854497615470301</v>
+        <v>0.2983728101682459</v>
       </c>
       <c r="J25">
-        <v>0.1227937291158412</v>
+        <v>0.07038729170618296</v>
       </c>
       <c r="K25">
-        <v>0.3654096634058703</v>
+        <v>1.035222947585765</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2954140411528456</v>
+        <v>0.4328363513049993</v>
       </c>
       <c r="N25">
-        <v>1.714122463444621</v>
+        <v>0.7742305252508963</v>
       </c>
       <c r="O25">
-        <v>3.299514085845118</v>
+        <v>1.606331233471764</v>
       </c>
     </row>
   </sheetData>
